--- a/Parameters File.xlsx
+++ b/Parameters File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHIJITPAUL\Desktop\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D7838-2D45-4283-B290-C322293788F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85614E30-CA72-4A0E-9162-335CF54E20F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tickets" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>File Name</t>
   </si>
@@ -80,20 +80,23 @@
     <t>WPPUS-India Team Ticket Details_15-Jun-2022 V1</t>
   </si>
   <si>
+    <t>WPPUS-India Team Ticket Details_17-Jun-2022 V1</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
+    <t>\\Input</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>.//Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +108,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,17 +150,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,9 +464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -636,7 +650,18 @@
         <v>44727</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44729</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -649,23 +674,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>